--- a/表計算/運行表.xlsx
+++ b/表計算/運行表.xlsx
@@ -127,6 +127,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">往復、金沢東から練馬まで全線高速</t>
     </r>
@@ -135,6 +136,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">14,650</t>
     </r>
@@ -143,6 +145,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">円</t>
     </r>
@@ -185,6 +188,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -194,6 +198,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">積み置き、ベニア、丸一運輸</t>
     </r>
@@ -236,6 +241,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -245,6 +251,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">荷主、名鉄、品名、カップ</t>
     </r>
@@ -258,6 +265,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">14</t>
     </r>
@@ -266,6 +274,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日に岡崎インターで降りた領収書、記憶にない不明の運行</t>
     </r>
@@ -276,6 +285,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 14</t>
@@ -285,6 +295,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日に豊中合併、９</t>
     </r>
@@ -293,6 +304,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">450</t>
     </r>
@@ -301,6 +313,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">円と</t>
     </r>
@@ -309,6 +322,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1000</t>
     </r>
@@ -317,6 +331,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">円の</t>
     </r>
@@ -325,6 +340,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -333,6 +349,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">枚の領収書</t>
     </r>
@@ -349,6 +366,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -358,6 +376,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">荷主、柿良青果、宇出津の</t>
     </r>
@@ -366,6 +385,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">A</t>
     </r>
@@ -374,6 +394,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">コープ能都店と七尾市の公設市場</t>
     </r>
@@ -387,6 +408,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -396,6 +418,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ベニア、丸一運輸</t>
     </r>
@@ -409,6 +432,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -418,6 +442,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">かつらぎ農協</t>
     </r>
@@ -428,6 +453,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -437,6 +463,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">荷主、名鉄、品名、サッシ、領収書なしの記載</t>
     </r>
@@ -459,6 +486,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -468,6 +496,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">業務日報は、</t>
     </r>
@@ -476,6 +505,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">12</t>
     </r>
@@ -484,6 +514,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -492,6 +523,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -500,6 +532,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日から</t>
     </r>
@@ -508,6 +541,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">6</t>
     </r>
@@ -516,6 +550,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日</t>
     </r>
@@ -532,6 +567,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -541,6 +577,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">荷主の城西を訂正し金沢市場輸送</t>
     </r>
@@ -560,6 +597,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">12</t>
     </r>
@@ -568,6 +606,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -576,6 +615,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">12</t>
     </r>
@@ -584,6 +624,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日に六日町インターで降りた</t>
     </r>
@@ -592,6 +633,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3800</t>
     </r>
@@ -600,6 +642,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">円の領収書</t>
     </r>
@@ -628,6 +671,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">12</t>
     </r>
@@ -636,6 +680,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -644,6 +689,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">24</t>
     </r>
@@ -652,6 +698,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日、福井北の領収書</t>
     </r>
@@ -660,6 +707,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">14150</t>
     </r>
@@ -668,6 +716,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">円</t>
     </r>
@@ -690,6 +739,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、</t>
     </r>
@@ -698,6 +748,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">16,8</t>
     </r>
@@ -706,6 +757,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン、五高倉庫</t>
     </r>
@@ -716,6 +768,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、</t>
     </r>
@@ -724,6 +777,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -732,6 +786,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -740,6 +795,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">×3</t>
     </r>
@@ -748,6 +804,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回＝</t>
     </r>
@@ -756,6 +813,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">45</t>
     </r>
@@ -764,6 +822,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン、五高倉庫</t>
     </r>
@@ -774,6 +833,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">運行費</t>
     </r>
@@ -782,6 +842,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3000</t>
     </r>
@@ -790,6 +851,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">円</t>
     </r>
@@ -806,6 +868,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、</t>
     </r>
@@ -814,6 +877,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -822,6 +886,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -830,6 +895,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">×2</t>
     </r>
@@ -838,6 +904,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回＝</t>
     </r>
@@ -846,6 +913,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">30</t>
     </r>
@@ -854,6 +922,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン、水島倉庫</t>
     </r>
@@ -868,6 +937,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、</t>
     </r>
@@ -876,6 +946,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -884,6 +955,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -892,6 +964,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">×1</t>
     </r>
@@ -900,6 +973,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回＝</t>
     </r>
@@ -908,6 +982,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -916,6 +991,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン、水島倉庫
 材木、丸一運輸</t>
@@ -930,6 +1006,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -938,6 +1015,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">箇所卸</t>
     </r>
@@ -951,6 +1029,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">荷主、北陸ハイミールを訂正し金沢市場輸送、ミール</t>
     </r>
@@ -959,6 +1038,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">21</t>
     </r>
@@ -967,6 +1047,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -988,6 +1069,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、</t>
     </r>
@@ -996,6 +1078,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -1004,6 +1087,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -1012,6 +1096,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">×2</t>
     </r>
@@ -1020,6 +1105,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回＝</t>
     </r>
@@ -1028,6 +1114,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">30</t>
     </r>
@@ -1036,6 +1123,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン、水島倉庫
 金沢市場輸送（浜田漁業金沢工場）、ミール</t>
@@ -1045,6 +1133,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">18</t>
     </r>
@@ -1053,6 +1142,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -1067,6 +1157,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1076,6 +1167,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">金沢市場輸送（浜田漁業金沢工場）、ミール</t>
     </r>
@@ -1084,6 +1176,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">18</t>
     </r>
@@ -1092,6 +1185,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -1102,6 +1196,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、</t>
     </r>
@@ -1110,6 +1205,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -1118,6 +1214,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -1126,6 +1223,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">×1</t>
     </r>
@@ -1134,6 +1232,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回、水島倉庫</t>
     </r>
@@ -1147,6 +1246,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、ミール</t>
     </r>
@@ -1155,6 +1255,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">24</t>
     </r>
@@ -1163,6 +1264,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン、水島倉庫</t>
     </r>
@@ -1182,6 +1284,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、ミール</t>
     </r>
@@ -1190,6 +1293,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -1198,6 +1302,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -1214,6 +1319,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1223,6 +1329,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ミール移動</t>
     </r>
@@ -1233,6 +1340,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1242,6 +1350,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、ミール</t>
     </r>
@@ -1250,6 +1359,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -1258,6 +1368,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -1266,6 +1377,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">×3</t>
     </r>
@@ -1274,6 +1386,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回＝</t>
     </r>
@@ -1282,6 +1395,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">45</t>
     </r>
@@ -1290,6 +1404,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン、国勝、新相川倉庫</t>
     </r>
@@ -1300,6 +1415,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、</t>
     </r>
@@ -1308,6 +1424,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -1316,6 +1433,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -1324,6 +1442,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">×1</t>
     </r>
@@ -1332,6 +1451,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">回、ライスセンター</t>
     </r>
@@ -1342,6 +1462,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">材木、丸一運輸、</t>
     </r>
@@ -1350,6 +1471,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -1358,6 +1480,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">箇所卸</t>
     </r>
@@ -1378,6 +1501,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1387,6 +1511,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">金沢〜福井</t>
     </r>
@@ -1401,6 +1526,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1410,6 +1536,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、ミール</t>
     </r>
@@ -1418,6 +1545,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -1426,6 +1554,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -1436,6 +1565,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北陸ハイミール、ミール</t>
     </r>
@@ -1444,6 +1574,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">18</t>
     </r>
@@ -1452,6 +1583,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -1480,6 +1612,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">協共運送、ホィル</t>
     </r>
@@ -1488,6 +1621,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -1496,6 +1630,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン</t>
     </r>
@@ -1509,6 +1644,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">石灰</t>
     </r>
@@ -1517,6 +1653,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">15</t>
     </r>
@@ -1525,6 +1662,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">トン、丸一運輸</t>
     </r>
@@ -1559,6 +1697,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1580,11 +1719,13 @@
       <sz val="14"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1642,7 +1783,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1667,6 +1808,94 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <name val="Noto Sans CJK JP"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF996600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Noto Sans CJK JP"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1677,11 +1906,11 @@
   </sheetPr>
   <dimension ref="A1:D679"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H179" activeCellId="0" sqref="H179"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D232" activeCellId="0" sqref="D232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
@@ -5038,6 +5267,14 @@
       <c r="A679" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A216">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>WEEKDAY(A2, 2)  = 6</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>WEEKDAY(A2, 2) = 7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/表計算/運行表.xlsx
+++ b/表計算/運行表.xlsx
@@ -8,8 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="市場急配センター運行表" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">市場急配センター運行表!$A$1:$D$216</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="142">
   <si>
     <t xml:space="preserve">日付</t>
   </si>
@@ -37,18 +40,24 @@
     <t xml:space="preserve">日通白菊倉庫（金沢）</t>
   </si>
   <si>
+    <t xml:space="preserve">積み置き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">〜</t>
+  </si>
+  <si>
     <t xml:space="preserve">神奈川県厚木市</t>
   </si>
   <si>
     <t xml:space="preserve">東京晴海</t>
   </si>
   <si>
+    <t xml:space="preserve">金沢</t>
+  </si>
+  <si>
     <t xml:space="preserve">松任</t>
   </si>
   <si>
-    <t xml:space="preserve">金沢</t>
-  </si>
-  <si>
     <t xml:space="preserve">福島県白河市</t>
   </si>
   <si>
@@ -92,12 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">東京有明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">積み置き</t>
-  </si>
-  <si>
-    <t xml:space="preserve">〜</t>
   </si>
   <si>
     <t xml:space="preserve">茨城県土浦市</t>
@@ -1692,7 +1695,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="m\月d\日"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
@@ -1715,9 +1718,21 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="14"/>
+      <sz val="9"/>
       <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1736,12 +1751,26 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1770,32 +1799,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1904,3367 +1957,3739 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D679"/>
+  <dimension ref="A1:H679"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D232" activeCellId="0" sqref="D232"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
         <v>33481</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
         <v>33482</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
         <v>33483</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>33484</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>33485</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>33486</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>33487</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>33488</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>33489</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>33490</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>33491</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>33492</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>33493</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>33494</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>33495</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>33496</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>33497</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>33498</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>33499</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>33500</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>33501</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>33502</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>33503</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>33504</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>33505</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>33506</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>33507</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>33508</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <v>33509</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
+        <v>33510</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>33484</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>33485</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="n">
+        <v>33511</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
+        <v>33512</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="n">
+        <v>33513</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <v>33514</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>33515</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>33516</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>33517</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
+        <v>33518</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <v>33519</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
+        <v>33520</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
+        <v>33521</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>33522</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>33523</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
+        <v>33524</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="n">
+        <v>33525</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="n">
+        <v>33526</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
+        <v>33527</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="n">
+        <v>33528</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <v>33529</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="n">
+        <v>33530</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <v>33531</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="n">
+        <v>33532</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="n">
+        <v>33533</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="n">
+        <v>33534</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="n">
+        <v>33535</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="n">
+        <v>33536</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="n">
+        <v>33537</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="n">
+        <v>33538</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="n">
+        <v>33539</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="n">
+        <v>33540</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="n">
+        <v>33541</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="n">
+        <v>33542</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="n">
+        <v>33543</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="n">
+        <v>33544</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="n">
+        <v>33545</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="n">
+        <v>33546</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="n">
+        <v>33547</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="n">
+        <v>33548</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="n">
+        <v>33549</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="n">
+        <v>33550</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="n">
+        <v>33551</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="n">
+        <v>33552</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="n">
+        <v>33553</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="n">
+        <v>33554</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="n">
+        <v>33555</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="n">
+        <v>33556</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="n">
+        <v>33557</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="n">
+        <v>33558</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="n">
+        <v>33559</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="n">
+        <v>33560</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="n">
+        <v>33561</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="n">
+        <v>33562</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="n">
+        <v>33563</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="n">
+        <v>33564</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="n">
+        <v>33565</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="n">
+        <v>33566</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="n">
+        <v>33567</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="n">
+        <v>33568</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="n">
+        <v>33569</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="n">
+        <v>33570</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="n">
+        <v>33571</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="n">
+        <v>33572</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="n">
+        <v>33573</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="n">
+        <v>33574</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>33486</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>33487</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>33488</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>33489</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="C95" s="9"/>
+      <c r="D95" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="n">
+        <v>33575</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="n">
+        <v>33576</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="n">
+        <v>33577</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="n">
+        <v>33578</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="n">
+        <v>33579</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="n">
+        <v>33580</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="n">
+        <v>33581</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="n">
+        <v>33582</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="n">
+        <v>33583</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="n">
+        <v>33584</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>33490</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>33491</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="D105" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="n">
+        <v>33585</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="n">
+        <v>33586</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="n">
+        <v>33587</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="n">
+        <v>33588</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="n">
+        <v>33589</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="n">
+        <v>33590</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="n">
+        <v>33591</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D112" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="n">
+        <v>33592</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="n">
+        <v>33593</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="n">
+        <v>33594</v>
+      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="n">
+        <v>33595</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>33492</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="C116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="n">
+        <v>33596</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="n">
+        <v>33597</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="n">
+        <v>33598</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="n">
+        <v>33599</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="n">
+        <v>33600</v>
+      </c>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="n">
+        <v>33601</v>
+      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="n">
+        <v>33602</v>
+      </c>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="n">
+        <v>33603</v>
+      </c>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="n">
+        <v>33604</v>
+      </c>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="n">
+        <v>33605</v>
+      </c>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="n">
+        <v>33606</v>
+      </c>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+    </row>
+    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="n">
+        <v>33607</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="n">
+        <v>33608</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+    </row>
+    <row r="130" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="n">
+        <v>33609</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="n">
+        <v>33610</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="n">
+        <v>33611</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="n">
+        <v>33612</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="n">
+        <v>33613</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="n">
+        <v>33614</v>
+      </c>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="n">
+        <v>33615</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="n">
+        <v>33616</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="9"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="n">
+        <v>33617</v>
+      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="n">
+        <v>33618</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="n">
+        <v>33619</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="n">
+        <v>33620</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="n">
+        <v>33621</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="n">
+        <v>33622</v>
+      </c>
+      <c r="B143" s="9"/>
+      <c r="C143" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="n">
+        <v>33623</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="n">
+        <v>33624</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="n">
+        <v>33625</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="n">
+        <v>33626</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="n">
+        <v>33627</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="n">
+        <v>33628</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="n">
+        <v>33629</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="n">
+        <v>33630</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="n">
+        <v>33631</v>
+      </c>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="n">
+        <v>33632</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="n">
+        <v>33633</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="n">
+        <v>33634</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="n">
+        <v>33635</v>
+      </c>
+      <c r="B156" s="9"/>
+      <c r="C156" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D156" s="9"/>
+    </row>
+    <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="n">
+        <v>33636</v>
+      </c>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="n">
+        <v>33637</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>33493</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>33494</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="C158" s="9"/>
+      <c r="D158" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="n">
+        <v>33638</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="n">
+        <v>33639</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="n">
+        <v>33640</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="n">
+        <v>33641</v>
+      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="n">
+        <v>33642</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="n">
+        <v>33643</v>
+      </c>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+    </row>
+    <row r="165" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="n">
+        <v>33644</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="n">
+        <v>33645</v>
+      </c>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+    </row>
+    <row r="167" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="n">
+        <v>33646</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="n">
+        <v>33647</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="n">
+        <v>33648</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="n">
+        <v>33649</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="n">
+        <v>33650</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="n">
+        <v>33651</v>
+      </c>
+      <c r="B172" s="9"/>
+      <c r="C172" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="n">
+        <v>33652</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="n">
+        <v>33653</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="n">
+        <v>33654</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="n">
+        <v>33655</v>
+      </c>
+      <c r="B176" s="9"/>
+      <c r="C176" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="n">
+        <v>33656</v>
+      </c>
+      <c r="B177" s="9"/>
+      <c r="C177" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="9"/>
+    </row>
+    <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="n">
+        <v>33657</v>
+      </c>
+      <c r="B178" s="9"/>
+      <c r="C178" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="n">
+        <v>33658</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="n">
+        <v>33659</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>33495</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>33496</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>33497</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>33498</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
-        <v>33499</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="C180" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="n">
+        <v>33660</v>
+      </c>
+      <c r="B181" s="9"/>
+      <c r="C181" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="n">
+        <v>33661</v>
+      </c>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="n">
+        <v>33662</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="n">
+        <v>33663</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
-        <v>33501</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
-        <v>33502</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>33503</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
-        <v>33504</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
-        <v>33505</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
-        <v>33506</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
-        <v>33507</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
-        <v>33508</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
-        <v>33509</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
-        <v>33510</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
-        <v>33511</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
-        <v>33512</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
-        <v>33513</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
-        <v>33514</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
-        <v>33515</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
-        <v>33516</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
-        <v>33517</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
-        <v>33518</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
-        <v>33519</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
-        <v>33520</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
-        <v>33521</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
-        <v>33522</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
-        <v>33523</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
-        <v>33524</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
-        <v>33525</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
-        <v>33526</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
-        <v>33527</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
-        <v>33528</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
-        <v>33529</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
-        <v>33530</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
-        <v>33531</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
-        <v>33532</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
-        <v>33533</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
-        <v>33534</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
-        <v>33535</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
-        <v>33536</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
-        <v>33537</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
-        <v>33538</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
-        <v>33539</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
-        <v>33540</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
-        <v>33541</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
-        <v>33542</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
-        <v>33543</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
-        <v>33544</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
-        <v>33545</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
-        <v>33546</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
-        <v>33547</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
-        <v>33548</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
-        <v>33549</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
-        <v>33550</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
-        <v>33551</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
-        <v>33552</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
-        <v>33553</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
-        <v>33554</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
-        <v>33555</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
-        <v>33556</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
-        <v>33557</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
-        <v>33558</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
-        <v>33559</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
-        <v>33560</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
-        <v>33561</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
-        <v>33562</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
-        <v>33563</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
-        <v>33564</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
-        <v>33565</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
-        <v>33566</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
-        <v>33567</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
-        <v>33568</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
-        <v>33569</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
-        <v>33570</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
-        <v>33571</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
-        <v>33572</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="n">
-        <v>33573</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="n">
-        <v>33574</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="n">
-        <v>33575</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="n">
-        <v>33576</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="n">
-        <v>33577</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="n">
-        <v>33578</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="n">
-        <v>33579</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="n">
-        <v>33580</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="n">
-        <v>33581</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="n">
-        <v>33582</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="n">
-        <v>33583</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="n">
-        <v>33584</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="n">
-        <v>33585</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="n">
-        <v>33586</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="n">
-        <v>33587</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="n">
-        <v>33588</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="n">
-        <v>33589</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="n">
-        <v>33590</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="n">
-        <v>33591</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="n">
-        <v>33592</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="n">
-        <v>33593</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="n">
-        <v>33594</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="n">
-        <v>33595</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="n">
-        <v>33596</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="n">
-        <v>33597</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="n">
-        <v>33598</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="n">
-        <v>33599</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="n">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="n">
-        <v>33601</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="n">
-        <v>33602</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="n">
-        <v>33603</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="n">
-        <v>33604</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="n">
-        <v>33605</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="n">
-        <v>33606</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="n">
-        <v>33607</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="n">
-        <v>33608</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="n">
-        <v>33609</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="n">
-        <v>33610</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="n">
-        <v>33611</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="n">
-        <v>33612</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="n">
-        <v>33613</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="n">
-        <v>33614</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="n">
-        <v>33615</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="n">
-        <v>33616</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="n">
-        <v>33617</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="n">
-        <v>33618</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="n">
-        <v>33619</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="n">
-        <v>33620</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="n">
-        <v>33621</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="n">
-        <v>33622</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="n">
-        <v>33623</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3" t="n">
-        <v>33624</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="n">
-        <v>33625</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="n">
-        <v>33626</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="n">
-        <v>33627</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="n">
-        <v>33628</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3" t="n">
-        <v>33629</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3" t="n">
-        <v>33630</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="n">
-        <v>33631</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3" t="n">
-        <v>33632</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3" t="n">
-        <v>33633</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3" t="n">
-        <v>33634</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="3" t="n">
-        <v>33635</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="3" t="n">
-        <v>33636</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="3" t="n">
-        <v>33637</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="3" t="n">
-        <v>33638</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="3" t="n">
-        <v>33639</v>
-      </c>
-      <c r="D160" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="3" t="n">
-        <v>33640</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D161" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="3" t="n">
-        <v>33641</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="3" t="n">
-        <v>33642</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="3" t="n">
-        <v>33643</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="n">
-        <v>33644</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3" t="n">
-        <v>33645</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="3" t="n">
-        <v>33646</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D167" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="3" t="n">
-        <v>33647</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3" t="n">
-        <v>33648</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="3" t="n">
-        <v>33649</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="3" t="n">
-        <v>33650</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="3" t="n">
-        <v>33651</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="3" t="n">
-        <v>33652</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="3" t="n">
-        <v>33653</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D174" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="3" t="n">
-        <v>33654</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="3" t="n">
-        <v>33655</v>
-      </c>
-      <c r="C176" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D176" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="3" t="n">
-        <v>33656</v>
-      </c>
-      <c r="C177" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="n">
-        <v>33657</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="n">
-        <v>33658</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D179" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3" t="n">
-        <v>33659</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3" t="n">
-        <v>33660</v>
-      </c>
-      <c r="C181" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="n">
-        <v>33661</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="n">
-        <v>33662</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D183" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="n">
-        <v>33663</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3" t="n">
+    <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="n">
         <v>33664</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="B185" s="9"/>
+      <c r="C185" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3" t="n">
+      <c r="D185" s="9"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="n">
         <v>33665</v>
       </c>
-    </row>
-    <row r="187" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3" t="n">
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="n">
         <v>33666</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="n">
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="n">
         <v>33667</v>
       </c>
-    </row>
-    <row r="189" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3" t="n">
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="n">
         <v>33668</v>
       </c>
-    </row>
-    <row r="190" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="3" t="n">
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="4" t="n">
         <v>33669</v>
       </c>
-    </row>
-    <row r="191" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3" t="n">
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+    </row>
+    <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="4" t="n">
         <v>33670</v>
       </c>
-    </row>
-    <row r="192" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="3" t="n">
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+    </row>
+    <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="4" t="n">
         <v>33671</v>
       </c>
-    </row>
-    <row r="193" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3" t="n">
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="4" t="n">
         <v>33672</v>
       </c>
-    </row>
-    <row r="194" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3" t="n">
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="n">
         <v>33673</v>
       </c>
-    </row>
-    <row r="195" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="3" t="n">
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4" t="n">
         <v>33674</v>
       </c>
-    </row>
-    <row r="196" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="3" t="n">
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="4" t="n">
         <v>33675</v>
       </c>
-    </row>
-    <row r="197" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="3" t="n">
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="4" t="n">
         <v>33676</v>
       </c>
-    </row>
-    <row r="198" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="3" t="n">
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+    </row>
+    <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="4" t="n">
         <v>33677</v>
       </c>
-    </row>
-    <row r="199" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="3" t="n">
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+    </row>
+    <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="n">
         <v>33678</v>
       </c>
-    </row>
-    <row r="200" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="3" t="n">
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="n">
         <v>33679</v>
       </c>
-    </row>
-    <row r="201" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3" t="n">
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="n">
         <v>33680</v>
       </c>
-    </row>
-    <row r="202" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3" t="n">
+      <c r="B201" s="9"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="n">
         <v>33681</v>
       </c>
-    </row>
-    <row r="203" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="3" t="n">
+      <c r="B202" s="9"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="9"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="n">
         <v>33682</v>
       </c>
-    </row>
-    <row r="204" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="3" t="n">
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="n">
         <v>33683</v>
       </c>
-    </row>
-    <row r="205" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3" t="n">
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="9"/>
+    </row>
+    <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="n">
         <v>33684</v>
       </c>
-    </row>
-    <row r="206" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="3" t="n">
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+    </row>
+    <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="n">
         <v>33685</v>
       </c>
-    </row>
-    <row r="207" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="3" t="n">
+      <c r="B206" s="9"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="9"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="n">
         <v>33686</v>
       </c>
-    </row>
-    <row r="208" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3" t="n">
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="n">
         <v>33687</v>
       </c>
-    </row>
-    <row r="209" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3" t="n">
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="4" t="n">
         <v>33688</v>
       </c>
-    </row>
-    <row r="210" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="3" t="n">
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="4" t="n">
         <v>33689</v>
       </c>
-    </row>
-    <row r="211" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3" t="n">
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="4" t="n">
         <v>33690</v>
       </c>
-    </row>
-    <row r="212" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="3" t="n">
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+    </row>
+    <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="4" t="n">
         <v>33691</v>
       </c>
-    </row>
-    <row r="213" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="3" t="n">
+      <c r="B212" s="9"/>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9"/>
+    </row>
+    <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="4" t="n">
         <v>33692</v>
       </c>
-    </row>
-    <row r="214" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="3" t="n">
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="4" t="n">
         <v>33693</v>
       </c>
-    </row>
-    <row r="215" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3" t="n">
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="4" t="n">
         <v>33694</v>
       </c>
-    </row>
-    <row r="216" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3" t="n">
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="4" t="n">
         <v>33695</v>
       </c>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="6"/>
+      <c r="A217" s="12"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="6"/>
+      <c r="A218" s="12"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="6"/>
+      <c r="A219" s="12"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="6"/>
+      <c r="A220" s="12"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="6"/>
+      <c r="A221" s="12"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="6"/>
+      <c r="A222" s="12"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="6"/>
+      <c r="A223" s="12"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="6"/>
+      <c r="A224" s="12"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="6"/>
+      <c r="A225" s="12"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="6"/>
+      <c r="A226" s="12"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="6"/>
+      <c r="A227" s="12"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="6"/>
+      <c r="A228" s="12"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="6"/>
+      <c r="A229" s="12"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="6"/>
+      <c r="A230" s="12"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="6"/>
+      <c r="A231" s="12"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="6"/>
+      <c r="A232" s="12"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="6"/>
+      <c r="A233" s="12"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="6"/>
+      <c r="A234" s="12"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="6"/>
+      <c r="A235" s="12"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="6"/>
+      <c r="A236" s="12"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="6"/>
+      <c r="A237" s="12"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="6"/>
+      <c r="A238" s="12"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="6"/>
+      <c r="A239" s="12"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="6"/>
+      <c r="A240" s="12"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="6"/>
+      <c r="A241" s="12"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="6"/>
+      <c r="A242" s="12"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="6"/>
+      <c r="A243" s="12"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="6"/>
+      <c r="A244" s="12"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="6"/>
+      <c r="A245" s="12"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="6"/>
+      <c r="A246" s="12"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="6"/>
+      <c r="A247" s="12"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="6"/>
+      <c r="A248" s="12"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="6"/>
+      <c r="A249" s="12"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="6"/>
+      <c r="A250" s="12"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="6"/>
+      <c r="A251" s="12"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="6"/>
+      <c r="A252" s="12"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6"/>
+      <c r="A253" s="12"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="6"/>
+      <c r="A254" s="12"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="6"/>
+      <c r="A255" s="12"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="6"/>
+      <c r="A256" s="12"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="6"/>
+      <c r="A257" s="12"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="6"/>
+      <c r="A258" s="12"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="6"/>
+      <c r="A259" s="12"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="6"/>
+      <c r="A260" s="12"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="6"/>
+      <c r="A261" s="12"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="6"/>
+      <c r="A262" s="12"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="6"/>
+      <c r="A263" s="12"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="6"/>
+      <c r="A264" s="12"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="6"/>
+      <c r="A265" s="12"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="6"/>
+      <c r="A266" s="12"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="6"/>
+      <c r="A267" s="12"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="6"/>
+      <c r="A268" s="12"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="6"/>
+      <c r="A269" s="12"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="6"/>
+      <c r="A270" s="12"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="6"/>
+      <c r="A271" s="12"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="6"/>
+      <c r="A272" s="12"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="6"/>
+      <c r="A273" s="12"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="6"/>
+      <c r="A274" s="12"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="6"/>
+      <c r="A275" s="12"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="6"/>
+      <c r="A276" s="12"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="6"/>
+      <c r="A277" s="12"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="6"/>
+      <c r="A278" s="12"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="6"/>
+      <c r="A279" s="12"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="6"/>
+      <c r="A280" s="12"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="6"/>
+      <c r="A281" s="12"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="6"/>
+      <c r="A282" s="12"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="6"/>
+      <c r="A283" s="12"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="6"/>
+      <c r="A284" s="12"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="6"/>
+      <c r="A285" s="12"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="6"/>
+      <c r="A286" s="12"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="6"/>
+      <c r="A287" s="12"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="6"/>
+      <c r="A288" s="12"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="6"/>
+      <c r="A289" s="12"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="6"/>
+      <c r="A290" s="12"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="6"/>
+      <c r="A291" s="12"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="6"/>
+      <c r="A292" s="12"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="6"/>
+      <c r="A293" s="12"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="6"/>
+      <c r="A294" s="12"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="6"/>
+      <c r="A295" s="12"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="6"/>
+      <c r="A296" s="12"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="6"/>
+      <c r="A297" s="12"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="6"/>
+      <c r="A298" s="12"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="6"/>
+      <c r="A299" s="12"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="6"/>
+      <c r="A300" s="12"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="6"/>
+      <c r="A301" s="12"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="6"/>
+      <c r="A302" s="12"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="6"/>
+      <c r="A303" s="12"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="6"/>
+      <c r="A304" s="12"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="6"/>
+      <c r="A305" s="12"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="6"/>
+      <c r="A306" s="12"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="6"/>
+      <c r="A307" s="12"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="6"/>
+      <c r="A308" s="12"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="6"/>
+      <c r="A309" s="12"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="6"/>
+      <c r="A310" s="12"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="6"/>
+      <c r="A311" s="12"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="6"/>
+      <c r="A312" s="12"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="6"/>
+      <c r="A313" s="12"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="6"/>
+      <c r="A314" s="12"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="6"/>
+      <c r="A315" s="12"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="6"/>
+      <c r="A316" s="12"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="6"/>
+      <c r="A317" s="12"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="6"/>
+      <c r="A318" s="12"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="6"/>
+      <c r="A319" s="12"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="6"/>
+      <c r="A320" s="12"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="6"/>
+      <c r="A321" s="12"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="6"/>
+      <c r="A322" s="12"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="6"/>
+      <c r="A323" s="12"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="6"/>
+      <c r="A324" s="12"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="6"/>
+      <c r="A325" s="12"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="6"/>
+      <c r="A326" s="12"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="6"/>
+      <c r="A327" s="12"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="6"/>
+      <c r="A328" s="12"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="6"/>
+      <c r="A329" s="12"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="6"/>
+      <c r="A330" s="12"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="6"/>
+      <c r="A331" s="12"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="6"/>
+      <c r="A332" s="12"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="6"/>
+      <c r="A333" s="12"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="6"/>
+      <c r="A334" s="12"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="6"/>
+      <c r="A335" s="12"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="6"/>
+      <c r="A336" s="12"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="6"/>
+      <c r="A337" s="12"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="6"/>
+      <c r="A338" s="12"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="6"/>
+      <c r="A339" s="12"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="6"/>
+      <c r="A340" s="12"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="6"/>
+      <c r="A341" s="12"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="6"/>
+      <c r="A342" s="12"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="6"/>
+      <c r="A343" s="12"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="6"/>
+      <c r="A344" s="12"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="6"/>
+      <c r="A345" s="12"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="6"/>
+      <c r="A346" s="12"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="6"/>
+      <c r="A347" s="12"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="6"/>
+      <c r="A348" s="12"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="6"/>
+      <c r="A349" s="12"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="6"/>
+      <c r="A350" s="12"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="6"/>
+      <c r="A351" s="12"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="6"/>
+      <c r="A352" s="12"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="6"/>
+      <c r="A353" s="12"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="6"/>
+      <c r="A354" s="12"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="6"/>
+      <c r="A355" s="12"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="6"/>
+      <c r="A356" s="12"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="6"/>
+      <c r="A357" s="12"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="6"/>
+      <c r="A358" s="12"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="6"/>
+      <c r="A359" s="12"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="6"/>
+      <c r="A360" s="12"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="6"/>
+      <c r="A361" s="12"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="6"/>
+      <c r="A362" s="12"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="6"/>
+      <c r="A363" s="12"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="6"/>
+      <c r="A364" s="12"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="6"/>
+      <c r="A365" s="12"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="6"/>
+      <c r="A366" s="12"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="6"/>
+      <c r="A367" s="12"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="6"/>
+      <c r="A368" s="12"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="6"/>
+      <c r="A369" s="12"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="6"/>
+      <c r="A370" s="12"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="6"/>
+      <c r="A371" s="12"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="6"/>
+      <c r="A372" s="12"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="6"/>
+      <c r="A373" s="12"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="6"/>
+      <c r="A374" s="12"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="6"/>
+      <c r="A375" s="12"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="6"/>
+      <c r="A376" s="12"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="6"/>
+      <c r="A377" s="12"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="6"/>
+      <c r="A378" s="12"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="6"/>
+      <c r="A379" s="12"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="6"/>
+      <c r="A380" s="12"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="6"/>
+      <c r="A381" s="12"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="6"/>
+      <c r="A382" s="12"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="6"/>
+      <c r="A383" s="12"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="6"/>
+      <c r="A384" s="12"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="6"/>
+      <c r="A385" s="12"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="6"/>
+      <c r="A386" s="12"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="6"/>
+      <c r="A387" s="12"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="6"/>
+      <c r="A388" s="12"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="6"/>
+      <c r="A389" s="12"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="6"/>
+      <c r="A390" s="12"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="6"/>
+      <c r="A391" s="12"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="6"/>
+      <c r="A392" s="12"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="6"/>
+      <c r="A393" s="12"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="6"/>
+      <c r="A394" s="12"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="6"/>
+      <c r="A395" s="12"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="6"/>
+      <c r="A396" s="12"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="6"/>
+      <c r="A397" s="12"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="6"/>
+      <c r="A398" s="12"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="6"/>
+      <c r="A399" s="12"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="6"/>
+      <c r="A400" s="12"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="6"/>
+      <c r="A401" s="12"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="6"/>
+      <c r="A402" s="12"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="6"/>
+      <c r="A403" s="12"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="6"/>
+      <c r="A404" s="12"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="6"/>
+      <c r="A405" s="12"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="6"/>
+      <c r="A406" s="12"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="6"/>
+      <c r="A407" s="12"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="6"/>
+      <c r="A408" s="12"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="6"/>
+      <c r="A409" s="12"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="6"/>
+      <c r="A410" s="12"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="6"/>
+      <c r="A411" s="12"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="6"/>
+      <c r="A412" s="12"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="6"/>
+      <c r="A413" s="12"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="6"/>
+      <c r="A414" s="12"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="6"/>
+      <c r="A415" s="12"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="6"/>
+      <c r="A416" s="12"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="6"/>
+      <c r="A417" s="12"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="6"/>
+      <c r="A418" s="12"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="6"/>
+      <c r="A419" s="12"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="6"/>
+      <c r="A420" s="12"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="6"/>
+      <c r="A421" s="12"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="6"/>
+      <c r="A422" s="12"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="6"/>
+      <c r="A423" s="12"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="6"/>
+      <c r="A424" s="12"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="6"/>
+      <c r="A425" s="12"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="6"/>
+      <c r="A426" s="12"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="6"/>
+      <c r="A427" s="12"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="6"/>
+      <c r="A428" s="12"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="6"/>
+      <c r="A429" s="12"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="6"/>
+      <c r="A430" s="12"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="6"/>
+      <c r="A431" s="12"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="6"/>
+      <c r="A432" s="12"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="6"/>
+      <c r="A433" s="12"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="6"/>
+      <c r="A434" s="12"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="6"/>
+      <c r="A435" s="12"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="6"/>
+      <c r="A436" s="12"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="6"/>
+      <c r="A437" s="12"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="6"/>
+      <c r="A438" s="12"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="6"/>
+      <c r="A439" s="12"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="6"/>
+      <c r="A440" s="12"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="6"/>
+      <c r="A441" s="12"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="6"/>
+      <c r="A442" s="12"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="6"/>
+      <c r="A443" s="12"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="6"/>
+      <c r="A444" s="12"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="6"/>
+      <c r="A445" s="12"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="6"/>
+      <c r="A446" s="12"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="6"/>
+      <c r="A447" s="12"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="6"/>
+      <c r="A448" s="12"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="6"/>
+      <c r="A449" s="12"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="6"/>
+      <c r="A450" s="12"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="6"/>
+      <c r="A451" s="12"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="6"/>
+      <c r="A452" s="12"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="6"/>
+      <c r="A453" s="12"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="6"/>
+      <c r="A454" s="12"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="6"/>
+      <c r="A455" s="12"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="6"/>
+      <c r="A456" s="12"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="6"/>
+      <c r="A457" s="12"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="6"/>
+      <c r="A458" s="12"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="6"/>
+      <c r="A459" s="12"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="6"/>
+      <c r="A460" s="12"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="6"/>
+      <c r="A461" s="12"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="6"/>
+      <c r="A462" s="12"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="6"/>
+      <c r="A463" s="12"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="6"/>
+      <c r="A464" s="12"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="6"/>
+      <c r="A465" s="12"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="6"/>
+      <c r="A466" s="12"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="6"/>
+      <c r="A467" s="12"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="6"/>
+      <c r="A468" s="12"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="6"/>
+      <c r="A469" s="12"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="6"/>
+      <c r="A470" s="12"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="6"/>
+      <c r="A471" s="12"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="6"/>
+      <c r="A472" s="12"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="6"/>
+      <c r="A473" s="12"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="6"/>
+      <c r="A474" s="12"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="6"/>
+      <c r="A475" s="12"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="6"/>
+      <c r="A476" s="12"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="6"/>
+      <c r="A477" s="12"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="6"/>
+      <c r="A478" s="12"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="6"/>
+      <c r="A479" s="12"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="6"/>
+      <c r="A480" s="12"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="6"/>
+      <c r="A481" s="12"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="6"/>
+      <c r="A482" s="12"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="6"/>
+      <c r="A483" s="12"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="6"/>
+      <c r="A484" s="12"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="6"/>
+      <c r="A485" s="12"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="6"/>
+      <c r="A486" s="12"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="6"/>
+      <c r="A487" s="12"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="6"/>
+      <c r="A488" s="12"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="6"/>
+      <c r="A489" s="12"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="6"/>
+      <c r="A490" s="12"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="6"/>
+      <c r="A491" s="12"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="6"/>
+      <c r="A492" s="12"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="6"/>
+      <c r="A493" s="12"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="6"/>
+      <c r="A494" s="12"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="6"/>
+      <c r="A495" s="12"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="6"/>
+      <c r="A496" s="12"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="6"/>
+      <c r="A497" s="12"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="6"/>
+      <c r="A498" s="12"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="6"/>
+      <c r="A499" s="12"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="6"/>
+      <c r="A500" s="12"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="6"/>
+      <c r="A501" s="12"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="6"/>
+      <c r="A502" s="12"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="6"/>
+      <c r="A503" s="12"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="6"/>
+      <c r="A504" s="12"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="6"/>
+      <c r="A505" s="12"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="6"/>
+      <c r="A506" s="12"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="6"/>
+      <c r="A507" s="12"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="6"/>
+      <c r="A508" s="12"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="6"/>
+      <c r="A509" s="12"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="6"/>
+      <c r="A510" s="12"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="6"/>
+      <c r="A511" s="12"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="6"/>
+      <c r="A512" s="12"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="6"/>
+      <c r="A513" s="12"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="6"/>
+      <c r="A514" s="12"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="6"/>
+      <c r="A515" s="12"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="6"/>
+      <c r="A516" s="12"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="6"/>
+      <c r="A517" s="12"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="6"/>
+      <c r="A518" s="12"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="6"/>
+      <c r="A519" s="12"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="6"/>
+      <c r="A520" s="12"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="6"/>
+      <c r="A521" s="12"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="6"/>
+      <c r="A522" s="12"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="6"/>
+      <c r="A523" s="12"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="6"/>
+      <c r="A524" s="12"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="6"/>
+      <c r="A525" s="12"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="6"/>
+      <c r="A526" s="12"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="6"/>
+      <c r="A527" s="12"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="6"/>
+      <c r="A528" s="12"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="6"/>
+      <c r="A529" s="12"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="6"/>
+      <c r="A530" s="12"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="6"/>
+      <c r="A531" s="12"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="6"/>
+      <c r="A532" s="12"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="6"/>
+      <c r="A533" s="12"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="6"/>
+      <c r="A534" s="12"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="6"/>
+      <c r="A535" s="12"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="6"/>
+      <c r="A536" s="12"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="6"/>
+      <c r="A537" s="12"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="6"/>
+      <c r="A538" s="12"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="6"/>
+      <c r="A539" s="12"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="6"/>
+      <c r="A540" s="12"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="6"/>
+      <c r="A541" s="12"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="6"/>
+      <c r="A542" s="12"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="6"/>
+      <c r="A543" s="12"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="6"/>
+      <c r="A544" s="12"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="6"/>
+      <c r="A545" s="12"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="6"/>
+      <c r="A546" s="12"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="6"/>
+      <c r="A547" s="12"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="6"/>
+      <c r="A548" s="12"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="6"/>
+      <c r="A549" s="12"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="6"/>
+      <c r="A550" s="12"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="6"/>
+      <c r="A551" s="12"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="6"/>
+      <c r="A552" s="12"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="6"/>
+      <c r="A553" s="12"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="6"/>
+      <c r="A554" s="12"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="6"/>
+      <c r="A555" s="12"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="6"/>
+      <c r="A556" s="12"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="6"/>
+      <c r="A557" s="12"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="6"/>
+      <c r="A558" s="12"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="6"/>
+      <c r="A559" s="12"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="6"/>
+      <c r="A560" s="12"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="6"/>
+      <c r="A561" s="12"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="6"/>
+      <c r="A562" s="12"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="6"/>
+      <c r="A563" s="12"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="6"/>
+      <c r="A564" s="12"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="6"/>
+      <c r="A565" s="12"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="6"/>
+      <c r="A566" s="12"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="6"/>
+      <c r="A567" s="12"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="6"/>
+      <c r="A568" s="12"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="6"/>
+      <c r="A569" s="12"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="6"/>
+      <c r="A570" s="12"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="6"/>
+      <c r="A571" s="12"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="6"/>
+      <c r="A572" s="12"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="6"/>
+      <c r="A573" s="12"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="6"/>
+      <c r="A574" s="12"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="6"/>
+      <c r="A575" s="12"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="6"/>
+      <c r="A576" s="12"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="6"/>
+      <c r="A577" s="12"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="6"/>
+      <c r="A578" s="12"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="6"/>
+      <c r="A579" s="12"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="6"/>
+      <c r="A580" s="12"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="6"/>
+      <c r="A581" s="12"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="6"/>
+      <c r="A582" s="12"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="6"/>
+      <c r="A583" s="12"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="6"/>
+      <c r="A584" s="12"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="6"/>
+      <c r="A585" s="12"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="6"/>
+      <c r="A586" s="12"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="6"/>
+      <c r="A587" s="12"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="6"/>
+      <c r="A588" s="12"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="6"/>
+      <c r="A589" s="12"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="6"/>
+      <c r="A590" s="12"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="6"/>
+      <c r="A591" s="12"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="6"/>
+      <c r="A592" s="12"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="6"/>
+      <c r="A593" s="12"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="6"/>
+      <c r="A594" s="12"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="6"/>
+      <c r="A595" s="12"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="6"/>
+      <c r="A596" s="12"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="6"/>
+      <c r="A597" s="12"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="6"/>
+      <c r="A598" s="12"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="6"/>
+      <c r="A599" s="12"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="6"/>
+      <c r="A600" s="12"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="6"/>
+      <c r="A601" s="12"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="6"/>
+      <c r="A602" s="12"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="6"/>
+      <c r="A603" s="12"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="6"/>
+      <c r="A604" s="12"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="6"/>
+      <c r="A605" s="12"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="6"/>
+      <c r="A606" s="12"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="6"/>
+      <c r="A607" s="12"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="6"/>
+      <c r="A608" s="12"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="6"/>
+      <c r="A609" s="12"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="6"/>
+      <c r="A610" s="12"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="6"/>
+      <c r="A611" s="12"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="6"/>
+      <c r="A612" s="12"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="6"/>
+      <c r="A613" s="12"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="6"/>
+      <c r="A614" s="12"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="6"/>
+      <c r="A615" s="12"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="6"/>
+      <c r="A616" s="12"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="6"/>
+      <c r="A617" s="12"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="6"/>
+      <c r="A618" s="12"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="6"/>
+      <c r="A619" s="12"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="6"/>
+      <c r="A620" s="12"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="6"/>
+      <c r="A621" s="12"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="6"/>
+      <c r="A622" s="12"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="6"/>
+      <c r="A623" s="12"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="6"/>
+      <c r="A624" s="12"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="6"/>
+      <c r="A625" s="12"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="6"/>
+      <c r="A626" s="12"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="6"/>
+      <c r="A627" s="12"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="6"/>
+      <c r="A628" s="12"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="6"/>
+      <c r="A629" s="12"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="6"/>
+      <c r="A630" s="12"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="6"/>
+      <c r="A631" s="12"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="6"/>
+      <c r="A632" s="12"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="6"/>
+      <c r="A633" s="12"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="6"/>
+      <c r="A634" s="12"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="6"/>
+      <c r="A635" s="12"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="6"/>
+      <c r="A636" s="12"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="6"/>
+      <c r="A637" s="12"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="6"/>
+      <c r="A638" s="12"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="6"/>
+      <c r="A639" s="12"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="6"/>
+      <c r="A640" s="12"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="6"/>
+      <c r="A641" s="12"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="6"/>
+      <c r="A642" s="12"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="6"/>
+      <c r="A643" s="12"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="6"/>
+      <c r="A644" s="12"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="6"/>
+      <c r="A645" s="12"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="6"/>
+      <c r="A646" s="12"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="6"/>
+      <c r="A647" s="12"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="6"/>
+      <c r="A648" s="12"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="6"/>
+      <c r="A649" s="12"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="6"/>
+      <c r="A650" s="12"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="6"/>
+      <c r="A651" s="12"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="6"/>
+      <c r="A652" s="12"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="6"/>
+      <c r="A653" s="12"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="6"/>
+      <c r="A654" s="12"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="6"/>
+      <c r="A655" s="12"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="6"/>
+      <c r="A656" s="12"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="6"/>
+      <c r="A657" s="12"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="6"/>
+      <c r="A658" s="12"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="6"/>
+      <c r="A659" s="12"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="6"/>
+      <c r="A660" s="12"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="6"/>
+      <c r="A661" s="12"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="6"/>
+      <c r="A662" s="12"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="6"/>
+      <c r="A663" s="12"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="6"/>
+      <c r="A664" s="12"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="6"/>
+      <c r="A665" s="12"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="6"/>
+      <c r="A666" s="12"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="6"/>
+      <c r="A667" s="12"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="6"/>
+      <c r="A668" s="12"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="6"/>
+      <c r="A669" s="12"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="6"/>
+      <c r="A670" s="12"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="6"/>
+      <c r="A671" s="12"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="6"/>
+      <c r="A672" s="12"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="6"/>
+      <c r="A673" s="12"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="6"/>
+      <c r="A674" s="12"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="6"/>
+      <c r="A675" s="12"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="6"/>
+      <c r="A676" s="12"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="6"/>
+      <c r="A677" s="12"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="6"/>
+      <c r="A678" s="12"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="6"/>
+      <c r="A679" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A216">
@@ -5277,7 +5702,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>

--- a/表計算/運行表.xlsx
+++ b/表計算/運行表.xlsx
@@ -1690,10 +1690,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="m\月d\日"/>
+    <numFmt numFmtId="165" formatCode="yyyy\年mm\月dd&quot;日（&quot;AAAA\）"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1799,32 +1798,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1846,10 +1853,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1957,3739 +1960,2351 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H679"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="58.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>33481</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>33482</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>33483</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>33484</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>33485</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>33486</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="0"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>33487</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>33488</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>33489</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>33490</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>33491</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>33492</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>33493</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>33494</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>33495</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>33496</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>33497</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>33498</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>33499</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>33500</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>33501</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="5" t="n">
         <v>33502</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="5" t="n">
         <v>33503</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>33504</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>33505</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>33506</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>33507</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
         <v>33508</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="5" t="n">
         <v>33509</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="5" t="n">
         <v>33510</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
         <v>33511</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
         <v>33512</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="5" t="n">
         <v>33513</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="C34" s="10"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
         <v>33514</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
         <v>33515</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="5" t="n">
         <v>33516</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="5" t="n">
         <v>33517</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
         <v>33518</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
         <v>33519</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
         <v>33520</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
         <v>33521</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
         <v>33522</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="5" t="n">
         <v>33523</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+      <c r="A45" s="5" t="n">
         <v>33524</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="9" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
         <v>33525</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
         <v>33526</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
         <v>33527</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
         <v>33528</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="5" t="n">
         <v>33529</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="11"/>
+      <c r="C50" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="9"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="5" t="n">
         <v>33530</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="9"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="5" t="n">
         <v>33531</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
         <v>33532</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="n">
         <v>33533</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="n">
         <v>33534</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="5" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
         <v>33535</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="n">
         <v>33536</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="5" t="n">
         <v>33537</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="9"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="5" t="n">
         <v>33538</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
         <v>33539</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
         <v>33540</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
         <v>33541</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="11"/>
+      <c r="C62" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
         <v>33542</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="n">
         <v>33543</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+      <c r="A65" s="5" t="n">
         <v>33544</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+      <c r="A66" s="5" t="n">
         <v>33545</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="n">
         <v>33546</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="n">
         <v>33547</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="11"/>
+      <c r="C68" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="n">
         <v>33548</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="5" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="n">
         <v>33549</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="n">
         <v>33550</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="5" t="s">
+      <c r="B71" s="11"/>
+      <c r="C71" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D71" s="9"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
+      <c r="A72" s="5" t="n">
         <v>33551</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="7" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+      <c r="A73" s="5" t="n">
         <v>33552</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="n">
         <v>33553</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+      <c r="A75" s="5" t="n">
         <v>33554</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="10" t="s">
+      <c r="C75" s="11"/>
+      <c r="D75" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="n">
         <v>33555</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="9"/>
+      <c r="D76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="5" t="n">
         <v>33556</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="11"/>
+      <c r="C77" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
+      <c r="A78" s="5" t="n">
         <v>33557</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10" t="s">
+      <c r="C78" s="11"/>
+      <c r="D78" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+      <c r="A79" s="5" t="n">
         <v>33558</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
+      <c r="A80" s="5" t="n">
         <v>33559</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="5" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D80" s="9"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+      <c r="A81" s="5" t="n">
         <v>33560</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="10" t="s">
+      <c r="C81" s="11"/>
+      <c r="D81" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="n">
         <v>33561</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+      <c r="A83" s="5" t="n">
         <v>33562</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="10" t="s">
+      <c r="C83" s="11"/>
+      <c r="D83" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="n">
         <v>33563</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="9"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="n">
         <v>33564</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="11"/>
+      <c r="C85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="9"/>
+      <c r="D85" s="11"/>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+      <c r="A86" s="5" t="n">
         <v>33565</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+      <c r="A87" s="5" t="n">
         <v>33566</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="n">
         <v>33567</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="5" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="9"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+      <c r="A89" s="5" t="n">
         <v>33568</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="10" t="s">
+      <c r="C89" s="11"/>
+      <c r="D89" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="n">
         <v>33569</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="n">
         <v>33570</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D91" s="9"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="n">
         <v>33571</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="5" t="n">
         <v>33572</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="11"/>
+      <c r="C93" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="9"/>
+      <c r="D93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="5" t="n">
         <v>33573</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+      <c r="A95" s="5" t="n">
         <v>33574</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="10" t="s">
+      <c r="C95" s="11"/>
+      <c r="D95" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="n">
         <v>33575</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="9"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="n">
         <v>33576</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="11"/>
+      <c r="C97" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D97" s="9"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="n">
         <v>33577</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="5" t="n">
         <v>33578</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="11"/>
+      <c r="C99" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="5" t="n">
         <v>33579</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D100" s="9"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="5" t="n">
         <v>33580</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="5" t="n">
         <v>33581</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="n">
         <v>33582</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="5" t="n">
         <v>33583</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+      <c r="A105" s="5" t="n">
         <v>33584</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="n">
         <v>33585</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="5" t="s">
+      <c r="B106" s="11"/>
+      <c r="C106" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D106" s="9"/>
+      <c r="D106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="5" t="n">
         <v>33586</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="5" t="s">
+      <c r="C107" s="11"/>
+      <c r="D107" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+      <c r="A108" s="5" t="n">
         <v>33587</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="n">
         <v>33588</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="n">
         <v>33589</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="n">
         <v>33590</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="n">
         <v>33591</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
+    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="n">
         <v>33592</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="9"/>
+      <c r="D113" s="11"/>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
+      <c r="A114" s="5" t="n">
         <v>33593</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
+      <c r="A115" s="5" t="n">
         <v>33594</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="n">
         <v>33595</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="9"/>
+      <c r="D116" s="11"/>
     </row>
     <row r="117" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
+      <c r="A117" s="5" t="n">
         <v>33596</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="n">
         <v>33597</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="5" t="s">
+      <c r="C118" s="11"/>
+      <c r="D118" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="n">
         <v>33598</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="9"/>
+      <c r="D119" s="11"/>
     </row>
     <row r="120" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="n">
+      <c r="A120" s="5" t="n">
         <v>33599</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="n">
+      <c r="A121" s="5" t="n">
         <v>33600</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="n">
+      <c r="A122" s="5" t="n">
         <v>33601</v>
       </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="n">
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5" t="n">
         <v>33602</v>
       </c>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="n">
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="n">
         <v>33603</v>
       </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="n">
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="n">
         <v>33604</v>
       </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="n">
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="n">
         <v>33605</v>
       </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="n">
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5" t="n">
         <v>33606</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="n">
+      <c r="A128" s="5" t="n">
         <v>33607</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
+      <c r="A129" s="5" t="n">
         <v>33608</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
     </row>
     <row r="130" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="n">
+      <c r="A130" s="5" t="n">
         <v>33609</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9" t="s">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="n">
+    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5" t="n">
         <v>33610</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="n">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5" t="n">
         <v>33611</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="n">
+      <c r="A133" s="5" t="n">
         <v>33612</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="n">
+    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="5" t="n">
         <v>33613</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="n">
+      <c r="A135" s="5" t="n">
         <v>33614</v>
       </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="n">
+      <c r="A136" s="5" t="n">
         <v>33615</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="5" t="s">
+      <c r="C136" s="11"/>
+      <c r="D136" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="n">
+    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="5" t="n">
         <v>33616</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D137" s="9"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="n">
+      <c r="D137" s="11"/>
+    </row>
+    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="5" t="n">
         <v>33617</v>
       </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="5" t="s">
+      <c r="B138" s="11"/>
+      <c r="C138" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D138" s="9"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="n">
+      <c r="D138" s="11"/>
+    </row>
+    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="5" t="n">
         <v>33618</v>
       </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
     </row>
     <row r="140" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="n">
+      <c r="A140" s="5" t="n">
         <v>33619</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9" t="s">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="n">
+      <c r="A141" s="5" t="n">
         <v>33620</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="11" t="s">
+      <c r="C141" s="11"/>
+      <c r="D141" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="n">
+      <c r="A142" s="5" t="n">
         <v>33621</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="10" t="s">
+      <c r="C142" s="11"/>
+      <c r="D142" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="n">
+      <c r="A143" s="5" t="n">
         <v>33622</v>
       </c>
-      <c r="B143" s="9"/>
-      <c r="C143" s="5" t="s">
+      <c r="B143" s="11"/>
+      <c r="C143" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="n">
+      <c r="A144" s="5" t="n">
         <v>33623</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="n">
+    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="5" t="n">
         <v>33624</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="n">
+      <c r="A146" s="5" t="n">
         <v>33625</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="n">
+      <c r="A147" s="5" t="n">
         <v>33626</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="11" t="s">
+      <c r="C147" s="11"/>
+      <c r="D147" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="n">
+      <c r="A148" s="5" t="n">
         <v>33627</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="10" t="s">
+      <c r="C148" s="11"/>
+      <c r="D148" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="n">
+      <c r="A149" s="5" t="n">
         <v>33628</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="n">
+      <c r="A150" s="5" t="n">
         <v>33629</v>
       </c>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
     </row>
     <row r="151" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="n">
+      <c r="A151" s="5" t="n">
         <v>33630</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9" t="s">
+      <c r="C151" s="11"/>
+      <c r="D151" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4" t="n">
+    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5" t="n">
         <v>33631</v>
       </c>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="n">
+      <c r="A153" s="5" t="n">
         <v>33632</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9" t="s">
+      <c r="C153" s="11"/>
+      <c r="D153" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="n">
+    <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5" t="n">
         <v>33633</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="5" t="s">
+      <c r="C154" s="11"/>
+      <c r="D154" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4" t="n">
+    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="5" t="n">
         <v>33634</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="9"/>
+      <c r="D155" s="11"/>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4" t="n">
+      <c r="A156" s="5" t="n">
         <v>33635</v>
       </c>
-      <c r="B156" s="9"/>
-      <c r="C156" s="5" t="s">
+      <c r="B156" s="11"/>
+      <c r="C156" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D156" s="9"/>
+      <c r="D156" s="11"/>
     </row>
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4" t="n">
+      <c r="A157" s="5" t="n">
         <v>33636</v>
       </c>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
     </row>
     <row r="158" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="n">
+      <c r="A158" s="5" t="n">
         <v>33637</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9" t="s">
+      <c r="C158" s="11"/>
+      <c r="D158" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="n">
+    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="5" t="n">
         <v>33638</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="n">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+    </row>
+    <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="5" t="n">
         <v>33639</v>
       </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="5" t="s">
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="n">
+      <c r="A161" s="5" t="n">
         <v>33640</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9" t="s">
+      <c r="C161" s="11"/>
+      <c r="D161" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="n">
+    <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="5" t="n">
         <v>33641</v>
       </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="5" t="s">
+      <c r="B162" s="11"/>
+      <c r="C162" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="n">
+      <c r="A163" s="5" t="n">
         <v>33642</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="n">
+      <c r="A164" s="5" t="n">
         <v>33643</v>
       </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
     </row>
     <row r="165" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="n">
+      <c r="A165" s="5" t="n">
         <v>33644</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9" t="s">
+      <c r="C165" s="11"/>
+      <c r="D165" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="n">
+    <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="5" t="n">
         <v>33645</v>
       </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="n">
+      <c r="A167" s="5" t="n">
         <v>33646</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9" t="s">
+      <c r="C167" s="11"/>
+      <c r="D167" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="27.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="n">
+      <c r="A168" s="5" t="n">
         <v>33647</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="n">
+    <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="5" t="n">
         <v>33648</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D169" s="9"/>
+      <c r="D169" s="11"/>
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="n">
+      <c r="A170" s="5" t="n">
         <v>33649</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
     </row>
     <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="n">
+      <c r="A171" s="5" t="n">
         <v>33650</v>
       </c>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="n">
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+    </row>
+    <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="5" t="n">
         <v>33651</v>
       </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="5" t="s">
+      <c r="B172" s="11"/>
+      <c r="C172" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="n">
+      <c r="A173" s="5" t="n">
         <v>33652</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D173" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="n">
+      <c r="A174" s="5" t="n">
         <v>33653</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9" t="s">
+      <c r="C174" s="11"/>
+      <c r="D174" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="n">
+    <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="5" t="n">
         <v>33654</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="n">
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+    </row>
+    <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="5" t="n">
         <v>33655</v>
       </c>
-      <c r="B176" s="9"/>
-      <c r="C176" s="5" t="s">
+      <c r="B176" s="11"/>
+      <c r="C176" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="n">
+      <c r="A177" s="5" t="n">
         <v>33656</v>
       </c>
-      <c r="B177" s="9"/>
-      <c r="C177" s="5" t="s">
+      <c r="B177" s="11"/>
+      <c r="C177" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D177" s="9"/>
+      <c r="D177" s="11"/>
     </row>
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="n">
+      <c r="A178" s="5" t="n">
         <v>33657</v>
       </c>
-      <c r="B178" s="9"/>
-      <c r="C178" s="5" t="s">
+      <c r="B178" s="11"/>
+      <c r="C178" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="n">
+      <c r="A179" s="5" t="n">
         <v>33658</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9" t="s">
+      <c r="C179" s="11"/>
+      <c r="D179" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="n">
+      <c r="A180" s="5" t="n">
         <v>33659</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="n">
+    <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="5" t="n">
         <v>33660</v>
       </c>
-      <c r="B181" s="9"/>
-      <c r="C181" s="5" t="s">
+      <c r="B181" s="11"/>
+      <c r="C181" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D181" s="9"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="n">
+      <c r="D181" s="11"/>
+    </row>
+    <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="5" t="n">
         <v>33661</v>
       </c>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="n">
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+    </row>
+    <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="5" t="n">
         <v>33662</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C183" s="9"/>
-      <c r="D183" s="5" t="s">
+      <c r="C183" s="11"/>
+      <c r="D183" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="n">
+      <c r="A184" s="5" t="n">
         <v>33663</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="n">
+      <c r="A185" s="5" t="n">
         <v>33664</v>
       </c>
-      <c r="B185" s="9"/>
-      <c r="C185" s="5" t="s">
+      <c r="B185" s="11"/>
+      <c r="C185" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D185" s="9"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="n">
+      <c r="D185" s="11"/>
+    </row>
+    <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="5" t="n">
         <v>33665</v>
       </c>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4" t="n">
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+    </row>
+    <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="5" t="n">
         <v>33666</v>
       </c>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="n">
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+    </row>
+    <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="5" t="n">
         <v>33667</v>
       </c>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4" t="n">
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+    </row>
+    <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="5" t="n">
         <v>33668</v>
       </c>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="n">
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+    </row>
+    <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="5" t="n">
         <v>33669</v>
       </c>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
     </row>
     <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4" t="n">
+      <c r="A191" s="5" t="n">
         <v>33670</v>
       </c>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
     </row>
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="4" t="n">
+      <c r="A192" s="5" t="n">
         <v>33671</v>
       </c>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4" t="n">
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+    </row>
+    <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="5" t="n">
         <v>33672</v>
       </c>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4" t="n">
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+    </row>
+    <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="5" t="n">
         <v>33673</v>
       </c>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4" t="n">
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+    </row>
+    <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="5" t="n">
         <v>33674</v>
       </c>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4" t="n">
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+    </row>
+    <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="5" t="n">
         <v>33675</v>
       </c>
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4" t="n">
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+    </row>
+    <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="5" t="n">
         <v>33676</v>
       </c>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
     </row>
     <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="4" t="n">
+      <c r="A198" s="5" t="n">
         <v>33677</v>
       </c>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4" t="n">
+      <c r="A199" s="5" t="n">
         <v>33678</v>
       </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4" t="n">
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+    </row>
+    <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="5" t="n">
         <v>33679</v>
       </c>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4" t="n">
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+    </row>
+    <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="5" t="n">
         <v>33680</v>
       </c>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4" t="n">
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+    </row>
+    <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="5" t="n">
         <v>33681</v>
       </c>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4" t="n">
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+    </row>
+    <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="5" t="n">
         <v>33682</v>
       </c>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4" t="n">
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+    </row>
+    <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="5" t="n">
         <v>33683</v>
       </c>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4" t="n">
+      <c r="A205" s="5" t="n">
         <v>33684</v>
       </c>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4" t="n">
+      <c r="A206" s="5" t="n">
         <v>33685</v>
       </c>
-      <c r="B206" s="9"/>
-      <c r="C206" s="9"/>
-      <c r="D206" s="9"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="4" t="n">
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+    </row>
+    <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="5" t="n">
         <v>33686</v>
       </c>
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4" t="n">
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+    </row>
+    <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="5" t="n">
         <v>33687</v>
       </c>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4" t="n">
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+    </row>
+    <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="5" t="n">
         <v>33688</v>
       </c>
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4" t="n">
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+    </row>
+    <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="5" t="n">
         <v>33689</v>
       </c>
-      <c r="B210" s="9"/>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="4" t="n">
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+    </row>
+    <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="5" t="n">
         <v>33690</v>
       </c>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
     </row>
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="4" t="n">
+      <c r="A212" s="5" t="n">
         <v>33691</v>
       </c>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="4" t="n">
+      <c r="A213" s="5" t="n">
         <v>33692</v>
       </c>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="4" t="n">
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+    </row>
+    <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="5" t="n">
         <v>33693</v>
       </c>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="4" t="n">
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+    </row>
+    <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="5" t="n">
         <v>33694</v>
       </c>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="4" t="n">
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+    </row>
+    <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="5" t="n">
         <v>33695</v>
       </c>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="12"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="12"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="12"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="12"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="12"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="12"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="12"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="12"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="12"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="12"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="12"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="12"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="12"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="12"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="12"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="12"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="12"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="12"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="12"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="12"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="12"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="12"/>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="12"/>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="12"/>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="12"/>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="12"/>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="12"/>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="12"/>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="12"/>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="12"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="12"/>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="12"/>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="12"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="12"/>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="12"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="12"/>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="12"/>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="12"/>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="12"/>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="12"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="12"/>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="12"/>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="12"/>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="12"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="12"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="12"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="12"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="12"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="12"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="12"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="12"/>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="12"/>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="12"/>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="12"/>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="12"/>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="12"/>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="12"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="12"/>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="12"/>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="12"/>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="12"/>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="12"/>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="12"/>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="12"/>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="12"/>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="12"/>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="12"/>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="12"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="12"/>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="12"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="12"/>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="12"/>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="12"/>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="12"/>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="12"/>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="12"/>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="12"/>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="12"/>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="12"/>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="12"/>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="12"/>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="12"/>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="12"/>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="12"/>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="12"/>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="12"/>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="12"/>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="12"/>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="12"/>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="12"/>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="12"/>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="12"/>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="12"/>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="12"/>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="12"/>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="12"/>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="12"/>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="12"/>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="12"/>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="12"/>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="12"/>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="12"/>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="12"/>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="12"/>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="12"/>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="12"/>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="12"/>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="12"/>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="12"/>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="12"/>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="12"/>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="12"/>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="12"/>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="12"/>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="12"/>
-    </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="12"/>
-    </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="12"/>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="12"/>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="12"/>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="12"/>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="12"/>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="12"/>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="12"/>
-    </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="12"/>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="12"/>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="12"/>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="12"/>
-    </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="12"/>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="12"/>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="12"/>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="12"/>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="12"/>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="12"/>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="12"/>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="12"/>
-    </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="12"/>
-    </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="12"/>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="12"/>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="12"/>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="12"/>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="12"/>
-    </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="12"/>
-    </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="12"/>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="12"/>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="12"/>
-    </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="12"/>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="12"/>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="12"/>
-    </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="12"/>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="12"/>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="12"/>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="12"/>
-    </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="12"/>
-    </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="12"/>
-    </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="12"/>
-    </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="12"/>
-    </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="12"/>
-    </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="12"/>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="12"/>
-    </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="12"/>
-    </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="12"/>
-    </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="12"/>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="12"/>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="12"/>
-    </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="12"/>
-    </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="12"/>
-    </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="12"/>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="12"/>
-    </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="12"/>
-    </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="12"/>
-    </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="12"/>
-    </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="12"/>
-    </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="12"/>
-    </row>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="12"/>
-    </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="12"/>
-    </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="12"/>
-    </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="12"/>
-    </row>
-    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="12"/>
-    </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="12"/>
-    </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="12"/>
-    </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="12"/>
-    </row>
-    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="12"/>
-    </row>
-    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="12"/>
-    </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="12"/>
-    </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="12"/>
-    </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="12"/>
-    </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="12"/>
-    </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="12"/>
-    </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="12"/>
-    </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="12"/>
-    </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="12"/>
-    </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="12"/>
-    </row>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="12"/>
-    </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="12"/>
-    </row>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="12"/>
-    </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="12"/>
-    </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="12"/>
-    </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="12"/>
-    </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="12"/>
-    </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="12"/>
-    </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="12"/>
-    </row>
-    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="12"/>
-    </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="12"/>
-    </row>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="12"/>
-    </row>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="12"/>
-    </row>
-    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="12"/>
-    </row>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="12"/>
-    </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="12"/>
-    </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="12"/>
-    </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="12"/>
-    </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="12"/>
-    </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="12"/>
-    </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="12"/>
-    </row>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="12"/>
-    </row>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="12"/>
-    </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="12"/>
-    </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="12"/>
-    </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="12"/>
-    </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="12"/>
-    </row>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="12"/>
-    </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="12"/>
-    </row>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="12"/>
-    </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="12"/>
-    </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="12"/>
-    </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="12"/>
-    </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="12"/>
-    </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="12"/>
-    </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="12"/>
-    </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="12"/>
-    </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="12"/>
-    </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="12"/>
-    </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="12"/>
-    </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="12"/>
-    </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="12"/>
-    </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="12"/>
-    </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="12"/>
-    </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="12"/>
-    </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="12"/>
-    </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="12"/>
-    </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="12"/>
-    </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="12"/>
-    </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="12"/>
-    </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="12"/>
-    </row>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="12"/>
-    </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="12"/>
-    </row>
-    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="12"/>
-    </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="12"/>
-    </row>
-    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="12"/>
-    </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="12"/>
-    </row>
-    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="12"/>
-    </row>
-    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="12"/>
-    </row>
-    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="12"/>
-    </row>
-    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="12"/>
-    </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="12"/>
-    </row>
-    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="12"/>
-    </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="12"/>
-    </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="12"/>
-    </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="12"/>
-    </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="12"/>
-    </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="12"/>
-    </row>
-    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="12"/>
-    </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="12"/>
-    </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="12"/>
-    </row>
-    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="12"/>
-    </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="12"/>
-    </row>
-    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="12"/>
-    </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="12"/>
-    </row>
-    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="12"/>
-    </row>
-    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="12"/>
-    </row>
-    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="12"/>
-    </row>
-    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="12"/>
-    </row>
-    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="12"/>
-    </row>
-    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="12"/>
-    </row>
-    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="12"/>
-    </row>
-    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="12"/>
-    </row>
-    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="12"/>
-    </row>
-    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="12"/>
-    </row>
-    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="12"/>
-    </row>
-    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="12"/>
-    </row>
-    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="12"/>
-    </row>
-    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="12"/>
-    </row>
-    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="12"/>
-    </row>
-    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="12"/>
-    </row>
-    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="12"/>
-    </row>
-    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="12"/>
-    </row>
-    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="12"/>
-    </row>
-    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="12"/>
-    </row>
-    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="12"/>
-    </row>
-    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="12"/>
-    </row>
-    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="12"/>
-    </row>
-    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="12"/>
-    </row>
-    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="12"/>
-    </row>
-    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="12"/>
-    </row>
-    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="12"/>
-    </row>
-    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="12"/>
-    </row>
-    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="12"/>
-    </row>
-    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="12"/>
-    </row>
-    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="12"/>
-    </row>
-    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="12"/>
-    </row>
-    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="12"/>
-    </row>
-    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="12"/>
-    </row>
-    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="12"/>
-    </row>
-    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="12"/>
-    </row>
-    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="12"/>
-    </row>
-    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="12"/>
-    </row>
-    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="12"/>
-    </row>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="12"/>
-    </row>
-    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="12"/>
-    </row>
-    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="12"/>
-    </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="12"/>
-    </row>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="12"/>
-    </row>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="12"/>
-    </row>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="12"/>
-    </row>
-    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="12"/>
-    </row>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="12"/>
-    </row>
-    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="12"/>
-    </row>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="12"/>
-    </row>
-    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="12"/>
-    </row>
-    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="12"/>
-    </row>
-    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="12"/>
-    </row>
-    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="12"/>
-    </row>
-    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="12"/>
-    </row>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="12"/>
-    </row>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="12"/>
-    </row>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="12"/>
-    </row>
-    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="12"/>
-    </row>
-    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="12"/>
-    </row>
-    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="12"/>
-    </row>
-    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="12"/>
-    </row>
-    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="12"/>
-    </row>
-    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="12"/>
-    </row>
-    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="12"/>
-    </row>
-    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="12"/>
-    </row>
-    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="12"/>
-    </row>
-    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="12"/>
-    </row>
-    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="12"/>
-    </row>
-    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="12"/>
-    </row>
-    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="12"/>
-    </row>
-    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="12"/>
-    </row>
-    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="12"/>
-    </row>
-    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="12"/>
-    </row>
-    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="12"/>
-    </row>
-    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="12"/>
-    </row>
-    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="12"/>
-    </row>
-    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="12"/>
-    </row>
-    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="12"/>
-    </row>
-    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="12"/>
-    </row>
-    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="12"/>
-    </row>
-    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="12"/>
-    </row>
-    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="12"/>
-    </row>
-    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="12"/>
-    </row>
-    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="12"/>
-    </row>
-    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="12"/>
-    </row>
-    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="12"/>
-    </row>
-    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="12"/>
-    </row>
-    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="12"/>
-    </row>
-    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="12"/>
-    </row>
-    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="12"/>
-    </row>
-    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="12"/>
-    </row>
-    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="12"/>
-    </row>
-    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="12"/>
-    </row>
-    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="12"/>
-    </row>
-    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="12"/>
-    </row>
-    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="12"/>
-    </row>
-    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="12"/>
-    </row>
-    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="12"/>
-    </row>
-    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="12"/>
-    </row>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="12"/>
-    </row>
-    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="12"/>
-    </row>
-    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="12"/>
-    </row>
-    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="12"/>
-    </row>
-    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="12"/>
-    </row>
-    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="12"/>
-    </row>
-    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="12"/>
-    </row>
-    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="12"/>
-    </row>
-    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="12"/>
-    </row>
-    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="12"/>
-    </row>
-    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="12"/>
-    </row>
-    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="12"/>
-    </row>
-    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="12"/>
-    </row>
-    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="12"/>
-    </row>
-    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="12"/>
-    </row>
-    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="12"/>
-    </row>
-    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="12"/>
-    </row>
-    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="12"/>
-    </row>
-    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="12"/>
-    </row>
-    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="12"/>
-    </row>
-    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="12"/>
-    </row>
-    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="12"/>
-    </row>
-    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="12"/>
-    </row>
-    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="12"/>
-    </row>
-    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="12"/>
-    </row>
-    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="12"/>
-    </row>
-    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="12"/>
-    </row>
-    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="12"/>
-    </row>
-    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="12"/>
-    </row>
-    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="12"/>
-    </row>
-    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="12"/>
-    </row>
-    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="12"/>
-    </row>
-    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="12"/>
-    </row>
-    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="12"/>
-    </row>
-    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="12"/>
-    </row>
-    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="12"/>
-    </row>
-    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="12"/>
-    </row>
-    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="12"/>
-    </row>
-    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="12"/>
-    </row>
-    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="12"/>
-    </row>
-    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="12"/>
-    </row>
-    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="12"/>
-    </row>
-    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="12"/>
-    </row>
-    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="12"/>
-    </row>
-    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="12"/>
-    </row>
-    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="12"/>
-    </row>
-    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="12"/>
-    </row>
-    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="12"/>
-    </row>
-    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="12"/>
-    </row>
-    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="12"/>
-    </row>
-    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="12"/>
-    </row>
-    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="12"/>
-    </row>
-    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="12"/>
-    </row>
-    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="12"/>
-    </row>
-    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="12"/>
-    </row>
-    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="12"/>
-    </row>
-    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="12"/>
-    </row>
-    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="12"/>
-    </row>
-    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="12"/>
-    </row>
-    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="12"/>
-    </row>
-    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="12"/>
-    </row>
-    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="12"/>
-    </row>
-    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="12"/>
-    </row>
-    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="12"/>
-    </row>
-    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="12"/>
-    </row>
-    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="12"/>
-    </row>
-    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="12"/>
-    </row>
-    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="12"/>
-    </row>
-    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="12"/>
-    </row>
-    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="12"/>
-    </row>
-    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="12"/>
-    </row>
-    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="12"/>
-    </row>
-    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="12"/>
-    </row>
-    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="12"/>
-    </row>
-    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="12"/>
-    </row>
-    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="12"/>
-    </row>
-    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="12"/>
-    </row>
-    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="12"/>
-    </row>
-    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="12"/>
-    </row>
-    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="12"/>
-    </row>
-    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="12"/>
-    </row>
-    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="12"/>
-    </row>
-    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="12"/>
-    </row>
-    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="12"/>
-    </row>
-    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="12"/>
-    </row>
-    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="12"/>
-    </row>
-    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="12"/>
-    </row>
-    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="12"/>
-    </row>
-    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="12"/>
-    </row>
-    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="12"/>
-    </row>
-    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="12"/>
-    </row>
-    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="12"/>
-    </row>
-    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="12"/>
-    </row>
-    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="12"/>
-    </row>
-    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="12"/>
-    </row>
-    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="12"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A216">
